--- a/Notes/Hydrosens-link.xlsx
+++ b/Notes/Hydrosens-link.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\4A\HydroSens\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets_DATA\HydroSensMDE\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A814D402-DCD5-4CC3-96F7-CF28D3792013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BC47A7-BD58-4793-81B2-B2DA7140C15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Resources</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Kanban model</t>
+  </si>
+  <si>
+    <t>https://www.canva.com/design/DAFdcfvUnxU/WSismOO5mmrhMfZfhGy6sA/edit?utm_content=DAFdcfvUnxU&amp;utm_campaign=designshare&amp;utm_medium=link2&amp;utm_source=sharebutton</t>
   </si>
 </sst>
 </file>
@@ -376,10 +379,10 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="108.6640625" customWidth="1"/>
@@ -410,7 +413,9 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Notes/Hydrosens-link.xlsx
+++ b/Notes/Hydrosens-link.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets_DATA\HydroSensMDE\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\4A\HydroSens\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BC47A7-BD58-4793-81B2-B2DA7140C15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B8D7E9-C850-44FA-ACA7-A14986F2CE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Resources</t>
   </si>
@@ -43,16 +43,30 @@
   </si>
   <si>
     <t>https://www.canva.com/design/DAFdcfvUnxU/WSismOO5mmrhMfZfhGy6sA/edit?utm_content=DAFdcfvUnxU&amp;utm_campaign=designshare&amp;utm_medium=link2&amp;utm_source=sharebutton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring </t>
+  </si>
+  <si>
+    <t>https://1drv.ms/w/s!AmAbr2dL8CljgfRkE78t7fijctSQRQ?e=EXB48r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,14 +104,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -376,16 +395,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="108.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -413,11 +432,23 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{70927D44-1882-41A4-BFF0-CC5C4FE1CBF9}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{93204688-108E-4FF5-A267-47074B88CD12}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>